--- a/public/assets/excelTemplates/IdentityQRTemplate.xlsx
+++ b/public/assets/excelTemplates/IdentityQRTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumedh/Documents/PersonalProjects/charity-tracker/public/assets/excelTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6BC314-E700-FB45-B3D6-586933ABD16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E70D5-2C16-A64B-A181-D381A6EAEE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="9140" windowWidth="28040" windowHeight="17440" xr2:uid="{C4A1E138-AE61-664D-8118-FD6752EAE3DD}"/>
+    <workbookView xWindow="23840" yWindow="6080" windowWidth="16960" windowHeight="17440" xr2:uid="{C4A1E138-AE61-664D-8118-FD6752EAE3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,6 +567,12 @@
       <c r="C23" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{7A02E79B-6853-9E4C-9D74-F39DD3FEFD3D}">
+      <formula1>"9,10,11,12"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/public/assets/excelTemplates/IdentityQRTemplate.xlsx
+++ b/public/assets/excelTemplates/IdentityQRTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumedh/Documents/PersonalProjects/charity-tracker/public/assets/excelTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1E70D5-2C16-A64B-A181-D381A6EAEE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB1B1D8-2549-2C4A-842B-CAF390DD8F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23840" yWindow="6080" windowWidth="16960" windowHeight="17440" xr2:uid="{C4A1E138-AE61-664D-8118-FD6752EAE3DD}"/>
+    <workbookView xWindow="23060" yWindow="3380" windowWidth="17740" windowHeight="20140" xr2:uid="{C4A1E138-AE61-664D-8118-FD6752EAE3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3A7A16-7B99-1243-90B2-1D6446422350}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -445,7 +448,7 @@
     <col min="3" max="3" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -455,121 +458,311 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{7A02E79B-6853-9E4C-9D74-F39DD3FEFD3D}">
       <formula1>"9,10,11,12"</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{034A2993-5E96-A84E-AFD9-07462A30300C}">
+      <formula1>"2025,2026,2027,2028,2029,2030"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
